--- a/DragPrediction/NL2VP DragX/0.75T/n/5/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.75T/n/5/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>2.8965517239999999E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>0.11735987315042977</v>
+        <v>0.41620424273880147</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E200)</f>
-        <v>3.2408484004588769</v>
+        <v>11.493322360832009</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E41" si="0">A3*$E$1</f>
-        <v>0.1121476135590372</v>
+        <v>0.39771952136037131</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.11252694136745456</v>
+        <v>0.3990647668775486</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>8.9124303120272738E-2</v>
+        <v>0.31606981239874216</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.11605050899171901</v>
+        <v>0.41156072273902256</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>9.5373986655892556E-2</v>
+        <v>0.33823364688044533</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.1099942097017314</v>
+        <v>0.39008270480901081</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>9.8131319131289266E-2</v>
+        <v>0.3480122317075659</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>7.8153363385177685E-2</v>
+        <v>0.27716254757300868</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>7.88013316980124E-2</v>
+        <v>0.27946049791772681</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>7.5201544038260335E-2</v>
+        <v>0.26669423584936919</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>7.0223506688367771E-2</v>
+        <v>0.24904015860883061</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>8.1774713506747934E-2</v>
+        <v>0.29000527860687986</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>8.0232515598396698E-2</v>
+        <v>0.28453603860714033</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>5.1121885327983473E-2</v>
+        <v>0.18129830068102193</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>7.4897398980235549E-2</v>
+        <v>0.26561561791838612</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>5.0353934983289259E-2</v>
+        <v>0.17857484688804817</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>3.757571790866529E-2</v>
+        <v>0.13325826620055092</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>3.6970850016669422E-2</v>
+        <v>0.13111316689030822</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>1.1521068377429753E-2</v>
+        <v>4.085823723943368E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-6.8569878224491745E-2</v>
+        <v>-0.24317574205738571</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-8.9731898990392578E-2</v>
+        <v>-0.31822458619174299</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-9.5992919153665299E-2</v>
+        <v>-0.34042862481137531</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-9.7450713092157026E-2</v>
+        <v>-0.34559853515595673</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>-3.3489778410904961E-2</v>
+        <v>-0.11876791861503404</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-5.3828317325330588E-3</v>
+        <v>-1.9089637240470282E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>6.4429697700619836E-3</v>
+        <v>2.2849303447187799E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>1.0213288732958679E-2</v>
+        <v>3.6220336549999357E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-2.0663666534727274E-2</v>
+        <v>-7.3281484134441438E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-3.1346077661417358E-2</v>
+        <v>-0.11116551309815467</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>-9.5082779074958684E-2</v>
+        <v>-0.33720091032877042</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-3.3210511859962814E-2</v>
+        <v>-0.11777752964956396</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>0.14947540399478926</v>
+        <v>0.53009853928510198</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>9.1650615053045448E-2</v>
+        <v>0.32502910757072928</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>0.37729347998840085</v>
+        <v>1.3380309889018014</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>9.734264758749174E-2</v>
+        <v>0.34521529239735427</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>7.6776943237252079E-2</v>
+        <v>0.27228122067668942</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>0.48374407060989671</v>
+        <v>1.7155466275045141</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>0.47348697904257026</v>
+        <v>1.6791709488855566</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>0.46780647099055789</v>
+        <v>1.6590256344037575</v>
       </c>
     </row>
   </sheetData>
@@ -1102,5 +1102,6 @@
     <sortCondition descending="1" ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>